--- a/数据整理/stocks/港股/01024-快手-W.xlsx
+++ b/数据整理/stocks/港股/01024-快手-W.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,85 +22,127 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>510900</t>
+  </si>
+  <si>
+    <t>513050</t>
+  </si>
+  <si>
+    <t>202801</t>
+  </si>
+  <si>
     <t>161831</t>
   </si>
   <si>
-    <t>202801</t>
-  </si>
-  <si>
     <t>470888</t>
   </si>
   <si>
-    <t>510900</t>
-  </si>
-  <si>
-    <t>513050</t>
-  </si>
-  <si>
     <t>160717</t>
   </si>
   <si>
+    <t>易方达恒生国企(QDII-ETF)</t>
+  </si>
+  <si>
+    <t>易方达中证海外中国互联网50 QDII-ETF</t>
+  </si>
+  <si>
+    <t>南方全球精选配置(QDII-FOF)</t>
+  </si>
+  <si>
     <t>银华恒生国企指数（QDII-LOF）</t>
   </si>
   <si>
-    <t>南方全球精选配置(QDII-FOF)</t>
-  </si>
-  <si>
     <t>汇添富香港优势精选混合 (QDII)</t>
   </si>
   <si>
-    <t>易方达恒生国企(QDII-ETF)</t>
-  </si>
-  <si>
-    <t>易方达中证海外中国互联网50 QDII-ETF</t>
-  </si>
-  <si>
     <t>嘉实恒生中国企业指数(QDII-LOF)</t>
   </si>
   <si>
+    <t>102.81</t>
+  </si>
+  <si>
+    <t>83.32</t>
+  </si>
+  <si>
+    <t>26.61</t>
+  </si>
+  <si>
+    <t>3.98</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>97.45</t>
+  </si>
+  <si>
+    <t>99.21</t>
+  </si>
+  <si>
+    <t>30.74</t>
+  </si>
+  <si>
     <t>86.76</t>
   </si>
   <si>
-    <t>30.74</t>
-  </si>
-  <si>
     <t>79.75</t>
   </si>
   <si>
-    <t>97.45</t>
-  </si>
-  <si>
-    <t>99.21</t>
-  </si>
-  <si>
     <t>94.93</t>
   </si>
   <si>
+    <t>4.60</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
     <t>4.64</t>
   </si>
   <si>
-    <t>1.04</t>
-  </si>
-  <si>
     <t>6.33</t>
   </si>
   <si>
-    <t>4.60</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
     <t>4.46</t>
+  </si>
+  <si>
+    <t>4.7293</t>
+  </si>
+  <si>
+    <t>2.6829</t>
+  </si>
+  <si>
+    <t>0.2767</t>
+  </si>
+  <si>
+    <t>0.1847</t>
+  </si>
+  <si>
+    <t>0.1323</t>
+  </si>
+  <si>
+    <t>0.1093</t>
   </si>
 </sst>
 </file>
@@ -458,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,124 +522,166 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01024-快手-W.xlsx
+++ b/数据整理/stocks/港股/01024-快手-W.xlsx
@@ -1,180 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>510900</t>
-  </si>
-  <si>
-    <t>513050</t>
-  </si>
-  <si>
-    <t>202801</t>
-  </si>
-  <si>
-    <t>161831</t>
-  </si>
-  <si>
-    <t>470888</t>
-  </si>
-  <si>
-    <t>160717</t>
-  </si>
-  <si>
-    <t>易方达恒生国企(QDII-ETF)</t>
-  </si>
-  <si>
-    <t>易方达中证海外中国互联网50 QDII-ETF</t>
-  </si>
-  <si>
-    <t>南方全球精选配置(QDII-FOF)</t>
-  </si>
-  <si>
-    <t>银华恒生国企指数（QDII-LOF）</t>
-  </si>
-  <si>
-    <t>汇添富香港优势精选混合 (QDII)</t>
-  </si>
-  <si>
-    <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-  </si>
-  <si>
-    <t>102.81</t>
-  </si>
-  <si>
-    <t>83.32</t>
-  </si>
-  <si>
-    <t>26.61</t>
-  </si>
-  <si>
-    <t>3.98</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>97.45</t>
-  </si>
-  <si>
-    <t>99.21</t>
-  </si>
-  <si>
-    <t>30.74</t>
-  </si>
-  <si>
-    <t>86.76</t>
-  </si>
-  <si>
-    <t>79.75</t>
-  </si>
-  <si>
-    <t>94.93</t>
-  </si>
-  <si>
-    <t>4.60</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>4.64</t>
-  </si>
-  <si>
-    <t>6.33</t>
-  </si>
-  <si>
-    <t>4.46</t>
-  </si>
-  <si>
-    <t>4.7293</t>
-  </si>
-  <si>
-    <t>2.6829</t>
-  </si>
-  <si>
-    <t>0.2767</t>
-  </si>
-  <si>
-    <t>0.1847</t>
-  </si>
-  <si>
-    <t>0.1323</t>
-  </si>
-  <si>
-    <t>0.1093</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -499,193 +446,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6829</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.119999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01024-快手-W.xlsx
+++ b/数据整理/stocks/港股/01024-快手-W.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,13 +787,2687 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>188.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.6637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>276.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.0086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2491</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>121.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>326.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1796</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9583</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>112.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3121</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1965</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2097</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1977</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1776</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7963</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7671</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7247</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6492</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5883</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5358</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5006</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3398</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006778</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006779</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发恒生中国企业精明指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.93000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>8.119999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01024-快手-W.xlsx
+++ b/数据整理/stocks/港股/01024-快手-W.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3414,7 +3415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,17 +3426,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3445,14 +3466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>69</v>
-      </c>
-      <c r="D2" t="n">
-        <v>70.93000000000001</v>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>25.2809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3461,13 +3504,5204 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>207.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16.0144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>350.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.5316</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>110.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.0761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.2140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4339</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3135</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2702</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5798</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>63.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0248</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9624</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9234</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9078</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8814</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5471</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3863</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2043</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0370</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9903</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9244</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9236</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8159</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7877</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7647</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7428</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6865</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6865</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6464</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方全球精选配置(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5302</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5282</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5263</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5186</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5154</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4615</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4465</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4212</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4079</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3960</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3549</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3185</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3156</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2905</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2361</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008166</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>100.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>501301</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>103.89</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006355</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生中国(香港上市)25指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008167</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银瑞信消费行业股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>136</v>
+      </c>
+      <c r="D2" t="n">
+        <v>116.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.93000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>8.119999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01024-快手-W.xlsx
+++ b/数据整理/stocks/港股/01024-快手-W.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D2" t="n">
-        <v>116.28</v>
+        <v>97.97</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D3" t="n">
-        <v>70.93000000000001</v>
+        <v>116.28</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>69</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70.93000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>8.119999999999999</v>
       </c>
     </row>
@@ -532,6 +549,6097 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H160"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>204.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.8707</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.9186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.2224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50（QDII）ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>317.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.0620</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9276</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0995</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0709</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9938</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7716</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7391</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6375</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2808</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0211</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012346</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9549</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012892</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8803</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8518</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8518</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8377</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7959</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7953</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7323</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7144</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6844</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6829</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6796</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6222</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6133</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5852</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5756</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5652</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011930</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5561</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5345</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5079</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4843</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4740</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4705</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方全球精选配置（QDII-FOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4614</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4534</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4517</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-人民币（QDII）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4375</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4238</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012893</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3981</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012347</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2912</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>74.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011681</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011931</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>68.23</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011924</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014235</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>淳厚时代优选混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>工银沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013897</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013898</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011925</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>014236</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>淳厚时代优选混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011682</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>517270</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>75.24</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5748,7 +11856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8426,7 +14534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
